--- a/biology/Médecine/Lambeaux_de_débridement_en_parodontie/Lambeaux_de_débridement_en_parodontie.xlsx
+++ b/biology/Médecine/Lambeaux_de_débridement_en_parodontie/Lambeaux_de_débridement_en_parodontie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de la maladie parodontale certaines lésions, trop profondes ou trop difficiles d'accès ne peuvent être traitées par la seule réalisation de la thérapeutique initiale : motivation et enseignement à l'hygiène bucco-dentaire, détartrage et surfaçage radiculaire. Dans ces cas, l'élévation chirurgicale d'un lambeau permettra d'avoir un accès direct aux lésions avec un contrôle visuel sur les tissus à assainir.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsque l'accessibilité est difficile, empêchant la réalisation correcte du détartrage et du surfaçage radiculaire par le praticien et gênant le contrôle de plaque accompli par le patient.
 Réduire la profondeur des poches
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Avantages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport au surfaçage radiculaire ou à la gingivectomie, les lambeaux de débridement présentent les avantages suivants :
 L'épithélium de poche est entièrement éliminé.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Générales
-Cette liste n'est pas exhaustive mais récapitule les principales pathologies pouvant contre-indiquer la réalisation d'une chirurgie buccale.
+          <t>Générales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste n'est pas exhaustive mais récapitule les principales pathologies pouvant contre-indiquer la réalisation d'une chirurgie buccale.
 Maladies cardiovasculaires :
 Hypertension artérielle.
 Angine de poitrine.
@@ -601,9 +622,6 @@
 Maladie de Parkinson
 Transplantation d'organes avec traitement immunosuppresseur
 La plupart de ces maladies n'empêchent pas la réalisation de la chirurgie mais nécessitent une prise en charge particulière du patient. Il conviendra donc de prendre contact avec le médecin traitant du patient afin d'établir un protocole adapté.
-Locales
-Le manque de coopération du patient est une contre indication essentielle à la réalisation d'une intervention chirurgicale car un contrôle de plaque optimal durant la période post opératoire est indispensable à la réussite du traitement. Lors de la thérapeutique initiale (détartrages et surfaçages radiculaires) la bonne réalisation des techniques d'hygiène buccodentaire devra être vérifiée et ré expliquée si des dépôts sont encore présents.
-La limitation d'ouverture buccale du patient est une contre indication relative.
 </t>
         </is>
       </c>
@@ -614,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,12 +647,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Le lambeau de Widman[1]</t>
+          <t>Contre-indications</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce type de lambeau est particulièrement  indiqué lors de chirurgies résectrices où l'objectif est la « mise à plat » des lésions.
+          <t>Locales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manque de coopération du patient est une contre indication essentielle à la réalisation d'une intervention chirurgicale car un contrôle de plaque optimal durant la période post opératoire est indispensable à la réussite du traitement. Lors de la thérapeutique initiale (détartrages et surfaçages radiculaires) la bonne réalisation des techniques d'hygiène buccodentaire devra être vérifiée et ré expliquée si des dépôts sont encore présents.
+La limitation d'ouverture buccale du patient est une contre indication relative.
 </t>
         </is>
       </c>
@@ -645,7 +670,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,10 +685,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Le lambeau de Widman[1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce type de lambeau est particulièrement  indiqué lors de chirurgies résectrices où l'objectif est la « mise à plat » des lésions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Le lambeau de Widman modifié</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'incision initiale est effectuée avec un bistouri à lame 11 ou 15, obliquement par rapport au grand axe de la dent, à 1 mm de la racine, afin de séparer nettement l'épithélium de la poche, tant vestibulairement que lingualement (figure 1); si les impératifs esthétiques priment, l'incision est effectuée plus près du sulcus ; l'incision initiale doit suivre le plus possible le feston gingival, afin d'inclure la papille dans le lambeau; les lambeaux vestibulaire et lingual sont élevés au décolleur, précautionneusement, pour exposer quelques millimètres de la crête (toute exposition excessive conduit à une alvéolyse) ; pour séparer l'épithélium de poche et le tissu de granulation de la surface radiculaire, une seconde incision, parallèle à la première, est effectuée dans le sillon gingivo-dentaire, en direction et au contact de la crête alvéolaire; une troisième incision, perpendiculaire à cette dernière, permet d'exciser la crête de la poche; un curettage, un détartrage-surfaçage soigneux sont alors effectués pour éliminer les tissus nécrotiques et imbibés de toxines bactériennes, pour permettre une nouvelle attache des fibres desmodontales; les défauts intra-osseux sont soigneusement curetés, éventuellement, ils reçoivent un matériau de comblement (os autogène, os lyophilisé, phosphate tricalcique, corail…) ou sont recouverts d'une membrane résorbable ou non-résorbable permettant la RTG-ROG§; cette dernière technique n'est employée qu'en présence de cavités intra-osseuses aux bords épais, qui soutiennent bien la membrane et permettent sa tension.  
 Les lambeaux sont réappliqués et suturés, le plus souvent par des points inter-proximaux.  
@@ -674,44 +734,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Le lambeau déplacé apicalement</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette technique permet de préserver en la déplaçant apicalement la totalité du complexe mucco-gingival au lieu d'exciser la gencive en excès pour permettre une adaptation du lambeau aux surfaces osseuses et dentaires. Elle est utilisée principalement en vestibulaire au maxillaire et à la mandibule ainsi qu'en lingual lorsque la hauteur de tissu kératinisé est limitée.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -726,12 +755,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>L'intervention à lambeau modifié</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'absence de remodelage osseux et de déplacement apical du lambeau évite la dénudation radiculaire et préserve ainsi l'esthétique, ce qui en fait un procédé particulièrement adapté aux secteurs antérieurs visibles ou aux techniques de régénération tissulaire.
+          <t>Le lambeau déplacé apicalement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette technique permet de préserver en la déplaçant apicalement la totalité du complexe mucco-gingival au lieu d'exciser la gencive en excès pour permettre une adaptation du lambeau aux surfaces osseuses et dentaires. Elle est utilisée principalement en vestibulaire au maxillaire et à la mandibule ainsi qu'en lingual lorsque la hauteur de tissu kératinisé est limitée.
 </t>
         </is>
       </c>
@@ -742,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -757,12 +788,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Le lambeau esthétique d'accès</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce lambeau[2] permet de préserver la totalité du tissu gingival afin de préserver l'esthétique tout en permettant une préparation radiculaire optimale.
+          <t>L'intervention à lambeau modifié</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'absence de remodelage osseux et de déplacement apical du lambeau évite la dénudation radiculaire et préserve ainsi l'esthétique, ce qui en fait un procédé particulièrement adapté aux secteurs antérieurs visibles ou aux techniques de régénération tissulaire.
 </t>
         </is>
       </c>
@@ -773,7 +806,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -788,10 +821,45 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Le lambeau esthétique d'accès</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lambeau permet de préserver la totalité du tissu gingival afin de préserver l'esthétique tout en permettant une préparation radiculaire optimale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lambeaux_de_débridement_en_parodontie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lambeaux_de_d%C3%A9bridement_en_parodontie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Soins post-opératoires</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Une poche de glace devra être appliquée en regard du site opératoire pendant les heures suivant l'intervention afin de minimiser l'œdème.
 Des antalgiques de type paracétamol ou ibuprofène seront prescrits.
